--- a/data_in/data_raw_manually_extracted/human_entered/S_149.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_149.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{DBE71A24-EA92-0647-A744-A5B504D3A1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05FC054A-58C9-4CA4-8575-3C88544D459E}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{DBE71A24-EA92-0647-A744-A5B504D3A1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CB246C4-AC7F-4B92-830D-DC7E1CD3E256}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$196</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="775">
   <si>
     <t>COUNTRY_ISO_3</t>
   </si>
@@ -2353,20 +2353,23 @@
     <t>Environmental Rule of Law: First Global Report. 2019.  https://www.unenvironment.org/resources/assessment/environmental-rule-law-first-global-report</t>
   </si>
   <si>
+    <t>Year of legislation</t>
+  </si>
+  <si>
+    <t>Figure 3.15: Countries with Environmental Impact Assessment Laws (1972, 1992, and 2017) on Page 126-127</t>
+  </si>
+  <si>
+    <t>Does the country have an environmental impact assessment law?</t>
+  </si>
+  <si>
     <t>This indicator assesses whether a country has an environmental impact assessment law, either as a stand alone legal instrument or a provision in other laws. Data is taken from Figure 3.15 Countries with Environmental Impact Assessment Laws, p.127-127, UNEP Environmental Rule of Law. First Global Report 2019. There are two categories of environmental impact assessment law, a stand alone instrument and provisions in other legal instruments.</t>
-  </si>
-  <si>
-    <t>Year of legislation</t>
-  </si>
-  <si>
-    <t>Figure 3.15: Countries with Environmental Impact Assessment Laws (1972, 1992, and 2017) on Page 126-127</t>
-  </si>
-  <si>
-    <t>Does the country have an environmental impact assessment law?</t>
   </si>
   <si>
     <t>The source has two categories: Countries with stand-alone legal instruments for environmental impact assessments; and Countries with environmental impact assessment provisions in other legal instruments. Score both as Yes.
 	2 = Yes there are legal provisions (stand-alone legal instrument or in other legal instruments ) 1 = no legal provisions 0 = no data</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2975,37 +2978,37 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -3427,7 +3430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.6" hidden="1">
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>2019</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="19" t="s">
@@ -4325,7 +4328,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.6">
+    <row r="61" spans="1:20" ht="15.6" hidden="1">
       <c r="A61" s="7" t="s">
         <v>216</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.6" hidden="1">
+    <row r="93" spans="1:20" ht="15.6">
       <c r="A93" s="7" t="s">
         <v>313</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>2019</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S93" s="3"/>
       <c r="T93" s="19" t="s">
@@ -5443,7 +5446,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.6" hidden="1">
+    <row r="117" spans="1:20" ht="15.6">
       <c r="A117" s="7" t="s">
         <v>385</v>
       </c>
@@ -5454,14 +5457,14 @@
         <v>2019</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S117" s="3"/>
       <c r="T117" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.6" hidden="1">
+    <row r="118" spans="1:20" ht="15.6">
       <c r="A118" s="7" t="s">
         <v>388</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>2019</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S118" s="3"/>
       <c r="T118" s="19" t="s">
@@ -5599,7 +5602,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.6" hidden="1">
+    <row r="125" spans="1:20" ht="15.6">
       <c r="A125" s="7" t="s">
         <v>409</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>2019</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S125" s="3"/>
       <c r="T125" s="19" t="s">
@@ -5817,7 +5820,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.6" hidden="1">
+    <row r="136" spans="1:20" ht="15.6">
       <c r="A136" s="7" t="s">
         <v>442</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>2019</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S136" s="13"/>
       <c r="T136" s="19" t="s">
@@ -6355,7 +6358,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15.6" hidden="1">
+    <row r="163" spans="1:20" ht="15.6">
       <c r="A163" s="7" t="s">
         <v>523</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>2019</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S163" s="13"/>
       <c r="T163" s="19" t="s">
@@ -6393,7 +6396,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.6" hidden="1">
+    <row r="165" spans="1:20" ht="15.6">
       <c r="A165" s="7" t="s">
         <v>529</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>2019</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S165" s="13"/>
       <c r="T165" s="19" t="s">
@@ -6471,7 +6474,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15.6" hidden="1">
+    <row r="169" spans="1:20" ht="15.6">
       <c r="A169" s="7" t="s">
         <v>541</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>2019</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>81</v>
+        <v>774</v>
       </c>
       <c r="S169" s="13"/>
       <c r="T169" s="19" t="s">
@@ -7033,7 +7036,7 @@
   <autoFilter ref="A1:AJ196" xr:uid="{4631EF14-29D7-4279-8A85-4664F7D60FF2}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Countries with stand-alone legal instruments for environmental impact assessments"/>
+        <filter val="No"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7051,21 +7054,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -14641,11 +14644,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15140,17 +15143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173:E199"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
@@ -15168,7 +15171,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="72">
+    <row r="2" spans="1:8" ht="60">
       <c r="B2" s="18" t="s">
         <v>768</v>
       </c>
@@ -15176,20 +15179,20 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="36">
+      <c r="B3" s="18" t="s">
         <v>770</v>
-      </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="60">
-      <c r="B3" s="18" t="s">
-        <v>771</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="22" t="s">
@@ -15203,7 +15206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>35</v>
       </c>
@@ -15220,7 +15223,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>40</v>
       </c>
@@ -15237,7 +15240,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8">
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>47</v>
       </c>
@@ -15271,7 +15274,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8">
       <c r="C9" t="s">
         <v>50</v>
       </c>
@@ -15288,7 +15291,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>56</v>
       </c>
@@ -15322,7 +15325,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -15339,7 +15342,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8">
       <c r="C13" t="s">
         <v>62</v>
       </c>
@@ -15356,7 +15359,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>65</v>
       </c>
@@ -15373,7 +15376,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>68</v>
       </c>
@@ -15390,7 +15393,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
         <v>71</v>
       </c>
@@ -15407,7 +15410,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="15">
+    <row r="17" spans="3:7">
       <c r="C17" t="s">
         <v>74</v>
       </c>
@@ -15424,7 +15427,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="15">
+    <row r="18" spans="3:7">
       <c r="C18" t="s">
         <v>77</v>
       </c>
@@ -18332,7 +18335,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="191" spans="3:7" ht="15">
+    <row r="191" spans="3:7">
       <c r="C191" t="s">
         <v>599</v>
       </c>
@@ -18598,21 +18601,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -18784,14 +18772,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>